--- a/cpsat_solver/requests_admin_cp.xlsx
+++ b/cpsat_solver/requests_admin_cp.xlsx
@@ -100,7 +100,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -136,12 +136,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="14">
@@ -296,7 +290,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -317,35 +311,23 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -354,27 +336,11 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -691,7 +657,7 @@
   <dimension ref="A1:AQ12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q21" activeCellId="0" sqref="Q21"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -711,55 +677,54 @@
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="7" t="s">
+      <c r="E1" s="4"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="8" t="n">
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="7" t="n">
         <f aca="false">2*$B$1-SUM($C6:$C21)</f>
         <v>-2</v>
       </c>
-      <c r="T1" s="6"/>
-      <c r="U1" s="9" t="s">
+      <c r="T1" s="5"/>
+      <c r="U1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="9"/>
-      <c r="AH1" s="9"/>
-      <c r="AI1" s="9"/>
-      <c r="AJ1" s="9"/>
-      <c r="AK1" s="9"/>
-      <c r="AL1" s="10" t="n">
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="8"/>
+      <c r="AE1" s="8"/>
+      <c r="AF1" s="8"/>
+      <c r="AG1" s="8"/>
+      <c r="AH1" s="8"/>
+      <c r="AI1" s="8"/>
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="9" t="n">
         <f aca="false">-2*$B$1+SUM($B6:$B21)</f>
         <v>-14</v>
       </c>
-      <c r="AM1" s="0"/>
-      <c r="AN1" s="11"/>
-      <c r="AO1" s="11"/>
-      <c r="AP1" s="11"/>
-      <c r="AQ1" s="11"/>
+      <c r="AN1" s="5"/>
+      <c r="AO1" s="5"/>
+      <c r="AP1" s="5"/>
+      <c r="AQ1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
@@ -768,83 +733,83 @@
       <c r="B2" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="8" t="n">
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="7" t="n">
         <f aca="false">$B$1 - SUM($E6:$E21)</f>
         <v>-4</v>
       </c>
-      <c r="T2" s="11"/>
-      <c r="U2" s="9" t="s">
+      <c r="T2" s="5"/>
+      <c r="U2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="9"/>
-      <c r="AC2" s="9"/>
-      <c r="AD2" s="9"/>
-      <c r="AE2" s="9"/>
-      <c r="AF2" s="9"/>
-      <c r="AG2" s="9"/>
-      <c r="AH2" s="9"/>
-      <c r="AI2" s="9"/>
-      <c r="AJ2" s="9"/>
-      <c r="AK2" s="9"/>
-      <c r="AL2" s="10" t="n">
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="8"/>
+      <c r="AL2" s="9" t="n">
         <f aca="false">-$B$1+SUM($D6:$D22)</f>
         <v>-2</v>
       </c>
-      <c r="AM2" s="11"/>
-      <c r="AN2" s="11"/>
-      <c r="AO2" s="11"/>
-      <c r="AP2" s="11"/>
-      <c r="AQ2" s="11"/>
+      <c r="AM2" s="5"/>
+      <c r="AN2" s="5"/>
+      <c r="AO2" s="5"/>
+      <c r="AP2" s="5"/>
+      <c r="AQ2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
+        <v>5</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
-      <c r="T3" s="16"/>
+      <c r="T3" s="5"/>
       <c r="U3" s="4"/>
       <c r="V3" s="4"/>
       <c r="W3" s="4"/>
@@ -862,706 +827,706 @@
       <c r="AI3" s="4"/>
       <c r="AJ3" s="4"/>
       <c r="AK3" s="4"/>
-      <c r="AL3" s="17"/>
-      <c r="AM3" s="11"/>
-      <c r="AN3" s="11"/>
-      <c r="AO3" s="11"/>
-      <c r="AP3" s="11"/>
-      <c r="AQ3" s="11"/>
+      <c r="AL3" s="11"/>
+      <c r="AM3" s="5"/>
+      <c r="AN3" s="5"/>
+      <c r="AO3" s="5"/>
+      <c r="AP3" s="5"/>
+      <c r="AQ3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2"/>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18" t="s">
+      <c r="C4" s="12"/>
+      <c r="D4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18" t="s">
+      <c r="E4" s="12"/>
+      <c r="F4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="11"/>
-      <c r="AB4" s="11"/>
-      <c r="AC4" s="11"/>
-      <c r="AD4" s="11"/>
-      <c r="AE4" s="11"/>
-      <c r="AF4" s="11"/>
-      <c r="AG4" s="11"/>
-      <c r="AH4" s="11"/>
-      <c r="AI4" s="11"/>
-      <c r="AJ4" s="11"/>
-      <c r="AK4" s="11"/>
-      <c r="AL4" s="11"/>
-      <c r="AM4" s="11"/>
-      <c r="AN4" s="11"/>
-      <c r="AO4" s="11"/>
-      <c r="AP4" s="11"/>
-      <c r="AQ4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="5"/>
+      <c r="AM4" s="5"/>
+      <c r="AN4" s="5"/>
+      <c r="AO4" s="5"/>
+      <c r="AP4" s="5"/>
+      <c r="AQ4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2"/>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="20"/>
-      <c r="G5" s="21" t="n">
+      <c r="F5" s="13"/>
+      <c r="G5" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="H5" s="11" t="n">
+      <c r="H5" s="5" t="n">
         <f aca="false">IF(G5="","",IF(G5+1-$B$1 &gt; 0, "", G5+1))</f>
         <v>2</v>
       </c>
-      <c r="I5" s="11" t="n">
+      <c r="I5" s="5" t="n">
         <f aca="false">IF(H5="","",IF(H5+1-$B$1 &gt; 0, "", H5+1))</f>
         <v>3</v>
       </c>
-      <c r="J5" s="11" t="n">
+      <c r="J5" s="5" t="n">
         <f aca="false">IF(I5="","",IF(I5+1-$B$1 &gt; 0, "", I5+1))</f>
         <v>4</v>
       </c>
-      <c r="K5" s="11" t="n">
+      <c r="K5" s="5" t="n">
         <f aca="false">IF(J5="","",IF(J5+1-$B$1 &gt; 0, "", J5+1))</f>
         <v>5</v>
       </c>
-      <c r="L5" s="11" t="n">
+      <c r="L5" s="5" t="n">
         <f aca="false">IF(K5="","",IF(K5+1-$B$1 &gt; 0, "", K5+1))</f>
         <v>6</v>
       </c>
-      <c r="M5" s="11" t="n">
+      <c r="M5" s="5" t="n">
         <f aca="false">IF(L5="","",IF(L5+1-$B$1 &gt; 0, "", L5+1))</f>
         <v>7</v>
       </c>
-      <c r="N5" s="11" t="n">
+      <c r="N5" s="5" t="n">
         <f aca="false">IF(M5="","",IF(M5+1-$B$1 &gt; 0, "", M5+1))</f>
         <v>8</v>
       </c>
-      <c r="O5" s="11" t="n">
+      <c r="O5" s="5" t="n">
         <f aca="false">IF(N5="","",IF(N5+1-$B$1 &gt; 0, "", N5+1))</f>
         <v>9</v>
       </c>
-      <c r="P5" s="11" t="n">
+      <c r="P5" s="5" t="n">
         <f aca="false">IF(O5="","",IF(O5+1-$B$1 &gt; 0, "", O5+1))</f>
         <v>10</v>
       </c>
-      <c r="Q5" s="11" t="n">
+      <c r="Q5" s="5" t="n">
         <f aca="false">IF(P5="","",IF(P5+1-$B$1 &gt; 0, "", P5+1))</f>
         <v>11</v>
       </c>
-      <c r="R5" s="11" t="n">
+      <c r="R5" s="5" t="n">
         <f aca="false">IF(Q5="","",IF(Q5+1-$B$1 &gt; 0, "", Q5+1))</f>
         <v>12</v>
       </c>
-      <c r="S5" s="11" t="n">
+      <c r="S5" s="5" t="n">
         <f aca="false">IF(R5="","",IF(R5+1-$B$1 &gt; 0, "", R5+1))</f>
         <v>13</v>
       </c>
-      <c r="T5" s="11" t="n">
+      <c r="T5" s="5" t="n">
         <f aca="false">IF(S5="","",IF(S5+1-$B$1 &gt; 0, "", S5+1))</f>
         <v>14</v>
       </c>
-      <c r="U5" s="11" t="n">
+      <c r="U5" s="5" t="n">
         <f aca="false">IF(T5="","",IF(T5+1-$B$1 &gt; 0, "", T5+1))</f>
         <v>15</v>
       </c>
-      <c r="V5" s="11" t="n">
+      <c r="V5" s="5" t="n">
         <f aca="false">IF(U5="","",IF(U5+1-$B$1 &gt; 0, "", U5+1))</f>
         <v>16</v>
       </c>
-      <c r="W5" s="11" t="n">
+      <c r="W5" s="5" t="n">
         <f aca="false">IF(V5="","",IF(V5+1-$B$1 &gt; 0, "", V5+1))</f>
         <v>17</v>
       </c>
-      <c r="X5" s="11" t="n">
+      <c r="X5" s="5" t="n">
         <f aca="false">IF(W5="","",IF(W5+1-$B$1 &gt; 0, "", W5+1))</f>
         <v>18</v>
       </c>
-      <c r="Y5" s="11" t="n">
+      <c r="Y5" s="5" t="n">
         <f aca="false">IF(X5="","",IF(X5+1-$B$1 &gt; 0, "", X5+1))</f>
         <v>19</v>
       </c>
-      <c r="Z5" s="11" t="n">
+      <c r="Z5" s="5" t="n">
         <f aca="false">IF(Y5="","",IF(Y5+1-$B$1 &gt; 0, "", Y5+1))</f>
         <v>20</v>
       </c>
-      <c r="AA5" s="11" t="n">
+      <c r="AA5" s="5" t="n">
         <f aca="false">IF(Z5="","",IF(Z5+1-$B$1 &gt; 0, "", Z5+1))</f>
         <v>21</v>
       </c>
-      <c r="AB5" s="11" t="n">
+      <c r="AB5" s="5" t="n">
         <f aca="false">IF(AA5="","",IF(AA5+1-$B$1 &gt; 0, "", AA5+1))</f>
         <v>22</v>
       </c>
-      <c r="AC5" s="11" t="n">
+      <c r="AC5" s="5" t="n">
         <f aca="false">IF(AB5="","",IF(AB5+1-$B$1 &gt; 0, "", AB5+1))</f>
         <v>23</v>
       </c>
-      <c r="AD5" s="11" t="n">
+      <c r="AD5" s="5" t="n">
         <f aca="false">IF(AC5="","",IF(AC5+1-$B$1 &gt; 0, "", AC5+1))</f>
         <v>24</v>
       </c>
-      <c r="AE5" s="11" t="n">
+      <c r="AE5" s="5" t="n">
         <f aca="false">IF(AD5="","",IF(AD5+1-$B$1 &gt; 0, "", AD5+1))</f>
         <v>25</v>
       </c>
-      <c r="AF5" s="11" t="n">
+      <c r="AF5" s="5" t="n">
         <f aca="false">IF(AE5="","",IF(AE5+1-$B$1 &gt; 0, "", AE5+1))</f>
         <v>26</v>
       </c>
-      <c r="AG5" s="11" t="n">
+      <c r="AG5" s="5" t="n">
         <f aca="false">IF(AF5="","",IF(AF5+1-$B$1 &gt; 0, "", AF5+1))</f>
         <v>27</v>
       </c>
-      <c r="AH5" s="11" t="n">
+      <c r="AH5" s="5" t="n">
         <f aca="false">IF(AG5="","",IF(AG5+1-$B$1 &gt; 0, "", AG5+1))</f>
         <v>28</v>
       </c>
-      <c r="AI5" s="11" t="n">
+      <c r="AI5" s="5" t="n">
         <f aca="false">IF(AH5="","",IF(AH5+1-$B$1 &gt; 0, "", AH5+1))</f>
         <v>29</v>
       </c>
-      <c r="AJ5" s="11" t="n">
+      <c r="AJ5" s="5" t="n">
         <f aca="false">IF(AI5="","",IF(AI5+1-$B$1 &gt; 0, "", AI5+1))</f>
         <v>30</v>
       </c>
-      <c r="AK5" s="11" t="n">
+      <c r="AK5" s="5" t="n">
         <f aca="false">IF(AJ5="","",IF(AJ5+1-$B$1 &gt; 0, "", AJ5+1))</f>
         <v>31</v>
       </c>
-      <c r="AL5" s="11" t="str">
+      <c r="AL5" s="5" t="str">
         <f aca="false">IF(AK5="","",IF(AK5+1-$B$1 &gt; 0, "", AK5+1))</f>
         <v/>
       </c>
-      <c r="AM5" s="11" t="str">
+      <c r="AM5" s="5" t="str">
         <f aca="false">IF(AL5="","",IF(AL5+1-$B$1 &gt; 0, "", AL5+1))</f>
         <v/>
       </c>
-      <c r="AN5" s="11" t="str">
+      <c r="AN5" s="5" t="str">
         <f aca="false">IF(AM5="","",IF(AM5+1-$B$1 &gt; 0, "", AM5+1))</f>
         <v/>
       </c>
-      <c r="AO5" s="11" t="str">
+      <c r="AO5" s="5" t="str">
         <f aca="false">IF(AN5="","",IF(AN5+1-$B$1 &gt; 0, "", AN5+1))</f>
         <v/>
       </c>
-      <c r="AP5" s="11" t="str">
+      <c r="AP5" s="5" t="str">
         <f aca="false">IF(AO5="","",IF(AO5+1-$B$1 &gt; 0, "", AO5+1))</f>
         <v/>
       </c>
-      <c r="AQ5" s="11" t="str">
+      <c r="AQ5" s="5" t="str">
         <f aca="false">IF(AP5="","",IF(AP5+1-$B$1 &gt; 0, "", AP5+1))</f>
         <v/>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="23" t="n">
+      <c r="B6" s="16" t="n">
         <v>7</v>
       </c>
-      <c r="C6" s="23" t="n">
+      <c r="C6" s="16" t="n">
         <v>9</v>
       </c>
-      <c r="D6" s="23" t="n">
+      <c r="D6" s="16" t="n">
         <v>7</v>
       </c>
-      <c r="E6" s="23" t="n">
+      <c r="E6" s="16" t="n">
         <v>9</v>
       </c>
-      <c r="F6" s="23" t="n">
+      <c r="F6" s="16" t="n">
         <v>16</v>
       </c>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24"/>
-      <c r="S6" s="24"/>
-      <c r="T6" s="24"/>
-      <c r="U6" s="24"/>
-      <c r="V6" s="24"/>
-      <c r="W6" s="24"/>
-      <c r="X6" s="24"/>
-      <c r="Y6" s="24"/>
-      <c r="Z6" s="24"/>
-      <c r="AA6" s="24"/>
-      <c r="AB6" s="24"/>
-      <c r="AC6" s="24"/>
-      <c r="AD6" s="24"/>
-      <c r="AE6" s="24"/>
-      <c r="AF6" s="24"/>
-      <c r="AG6" s="24"/>
-      <c r="AH6" s="24"/>
-      <c r="AI6" s="24"/>
-      <c r="AJ6" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="AK6" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL6" s="24"/>
-      <c r="AM6" s="24"/>
-      <c r="AN6" s="24"/>
-      <c r="AO6" s="24"/>
-      <c r="AP6" s="24"/>
-      <c r="AQ6" s="24"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="17"/>
+      <c r="AA6" s="17"/>
+      <c r="AB6" s="17"/>
+      <c r="AC6" s="17"/>
+      <c r="AD6" s="17"/>
+      <c r="AE6" s="17"/>
+      <c r="AF6" s="17"/>
+      <c r="AG6" s="17"/>
+      <c r="AH6" s="17"/>
+      <c r="AI6" s="17"/>
+      <c r="AJ6" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK6" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL6" s="17"/>
+      <c r="AM6" s="17"/>
+      <c r="AN6" s="17"/>
+      <c r="AO6" s="17"/>
+      <c r="AP6" s="17"/>
+      <c r="AQ6" s="17"/>
     </row>
     <row r="7" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="23" t="n">
+      <c r="B7" s="16" t="n">
         <v>8</v>
       </c>
-      <c r="C7" s="23" t="n">
+      <c r="C7" s="16" t="n">
         <v>10</v>
       </c>
-      <c r="D7" s="23" t="n">
+      <c r="D7" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="E7" s="23" t="n">
+      <c r="E7" s="16" t="n">
         <v>7</v>
       </c>
-      <c r="F7" s="23" t="n">
+      <c r="F7" s="16" t="n">
         <v>15</v>
       </c>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="P7" s="24" t="s">
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="24"/>
-      <c r="U7" s="24"/>
-      <c r="V7" s="24"/>
-      <c r="W7" s="24"/>
-      <c r="X7" s="24"/>
-      <c r="Y7" s="24"/>
-      <c r="Z7" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA7" s="24"/>
-      <c r="AB7" s="24"/>
-      <c r="AC7" s="24"/>
-      <c r="AD7" s="24"/>
-      <c r="AE7" s="24"/>
-      <c r="AF7" s="24"/>
-      <c r="AG7" s="24"/>
-      <c r="AH7" s="24"/>
-      <c r="AI7" s="24"/>
-      <c r="AJ7" s="24"/>
-      <c r="AK7" s="24"/>
-      <c r="AL7" s="24"/>
-      <c r="AM7" s="24"/>
-      <c r="AN7" s="24"/>
-      <c r="AO7" s="24"/>
-      <c r="AP7" s="24"/>
-      <c r="AQ7" s="24"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA7" s="17"/>
+      <c r="AB7" s="17"/>
+      <c r="AC7" s="17"/>
+      <c r="AD7" s="17"/>
+      <c r="AE7" s="17"/>
+      <c r="AF7" s="17"/>
+      <c r="AG7" s="17"/>
+      <c r="AH7" s="17"/>
+      <c r="AI7" s="17"/>
+      <c r="AJ7" s="17"/>
+      <c r="AK7" s="17"/>
+      <c r="AL7" s="17"/>
+      <c r="AM7" s="17"/>
+      <c r="AN7" s="17"/>
+      <c r="AO7" s="17"/>
+      <c r="AP7" s="17"/>
+      <c r="AQ7" s="17"/>
     </row>
     <row r="8" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="23" t="n">
+      <c r="B8" s="16" t="n">
         <v>10</v>
       </c>
-      <c r="C8" s="23" t="n">
+      <c r="C8" s="16" t="n">
         <v>11</v>
       </c>
-      <c r="D8" s="23" t="n">
+      <c r="D8" s="16" t="n">
         <v>7</v>
       </c>
-      <c r="E8" s="23" t="n">
+      <c r="E8" s="16" t="n">
         <v>8</v>
       </c>
-      <c r="F8" s="23" t="n">
+      <c r="F8" s="16" t="n">
         <v>18</v>
       </c>
-      <c r="G8" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24" t="s">
+      <c r="G8" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24" t="s">
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="24"/>
-      <c r="U8" s="24"/>
-      <c r="V8" s="24"/>
-      <c r="W8" s="24"/>
-      <c r="X8" s="24"/>
-      <c r="Y8" s="24"/>
-      <c r="Z8" s="24"/>
-      <c r="AA8" s="24"/>
-      <c r="AB8" s="24" t="s">
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="17"/>
+      <c r="Z8" s="17"/>
+      <c r="AA8" s="17"/>
+      <c r="AB8" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="AC8" s="24"/>
-      <c r="AD8" s="24"/>
-      <c r="AE8" s="24" t="s">
+      <c r="AC8" s="17"/>
+      <c r="AD8" s="17"/>
+      <c r="AE8" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="AF8" s="24"/>
-      <c r="AG8" s="24"/>
-      <c r="AH8" s="24"/>
-      <c r="AI8" s="24"/>
-      <c r="AJ8" s="24"/>
-      <c r="AK8" s="24"/>
-      <c r="AL8" s="24"/>
-      <c r="AM8" s="24"/>
-      <c r="AN8" s="24"/>
-      <c r="AO8" s="24"/>
-      <c r="AP8" s="24"/>
-      <c r="AQ8" s="24"/>
+      <c r="AF8" s="17"/>
+      <c r="AG8" s="17"/>
+      <c r="AH8" s="17"/>
+      <c r="AI8" s="17"/>
+      <c r="AJ8" s="17"/>
+      <c r="AK8" s="17"/>
+      <c r="AL8" s="17"/>
+      <c r="AM8" s="17"/>
+      <c r="AN8" s="17"/>
+      <c r="AO8" s="17"/>
+      <c r="AP8" s="17"/>
+      <c r="AQ8" s="17"/>
     </row>
     <row r="9" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="23" t="n">
+      <c r="B9" s="16" t="n">
         <v>6</v>
       </c>
-      <c r="C9" s="23" t="n">
+      <c r="C9" s="16" t="n">
         <v>6</v>
       </c>
-      <c r="D9" s="23" t="n">
+      <c r="D9" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="E9" s="23" t="n">
+      <c r="E9" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="F9" s="23" t="n">
+      <c r="F9" s="16" t="n">
         <v>11</v>
       </c>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="24"/>
-      <c r="V9" s="24"/>
-      <c r="W9" s="24"/>
-      <c r="X9" s="24"/>
-      <c r="Y9" s="24"/>
-      <c r="Z9" s="24"/>
-      <c r="AA9" s="24"/>
-      <c r="AB9" s="24"/>
-      <c r="AC9" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD9" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE9" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="AF9" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG9" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="AH9" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI9" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="AJ9" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="AK9" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL9" s="24"/>
-      <c r="AM9" s="24"/>
-      <c r="AN9" s="24"/>
-      <c r="AO9" s="24"/>
-      <c r="AP9" s="24"/>
-      <c r="AQ9" s="24"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="17"/>
+      <c r="AA9" s="17"/>
+      <c r="AB9" s="17"/>
+      <c r="AC9" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD9" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE9" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF9" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG9" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="AH9" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI9" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ9" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK9" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL9" s="17"/>
+      <c r="AM9" s="17"/>
+      <c r="AN9" s="17"/>
+      <c r="AO9" s="17"/>
+      <c r="AP9" s="17"/>
+      <c r="AQ9" s="17"/>
     </row>
     <row r="10" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="23" t="n">
+      <c r="B10" s="16" t="n">
         <v>12</v>
       </c>
-      <c r="C10" s="23" t="n">
+      <c r="C10" s="16" t="n">
         <v>12</v>
       </c>
-      <c r="D10" s="23" t="n">
+      <c r="D10" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="E10" s="23" t="n">
+      <c r="E10" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="F10" s="23" t="n">
+      <c r="F10" s="16" t="n">
         <v>12</v>
       </c>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="M10" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="24"/>
-      <c r="T10" s="24"/>
-      <c r="U10" s="24"/>
-      <c r="V10" s="24"/>
-      <c r="W10" s="24"/>
-      <c r="X10" s="24"/>
-      <c r="Y10" s="24"/>
-      <c r="Z10" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA10" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB10" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC10" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD10" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE10" s="24"/>
-      <c r="AF10" s="24"/>
-      <c r="AG10" s="24"/>
-      <c r="AH10" s="24"/>
-      <c r="AI10" s="24"/>
-      <c r="AJ10" s="24"/>
-      <c r="AK10" s="24"/>
-      <c r="AL10" s="24"/>
-      <c r="AM10" s="24"/>
-      <c r="AN10" s="24"/>
-      <c r="AO10" s="24"/>
-      <c r="AP10" s="24"/>
-      <c r="AQ10" s="24"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA10" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB10" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC10" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD10" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE10" s="17"/>
+      <c r="AF10" s="17"/>
+      <c r="AG10" s="17"/>
+      <c r="AH10" s="17"/>
+      <c r="AI10" s="17"/>
+      <c r="AJ10" s="17"/>
+      <c r="AK10" s="17"/>
+      <c r="AL10" s="17"/>
+      <c r="AM10" s="17"/>
+      <c r="AN10" s="17"/>
+      <c r="AO10" s="17"/>
+      <c r="AP10" s="17"/>
+      <c r="AQ10" s="17"/>
     </row>
     <row r="11" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="23" t="n">
+      <c r="B11" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="C11" s="23" t="n">
+      <c r="C11" s="16" t="n">
         <v>6</v>
       </c>
-      <c r="D11" s="23" t="n">
+      <c r="D11" s="16" t="n">
         <v>5</v>
       </c>
-      <c r="E11" s="23" t="n">
+      <c r="E11" s="16" t="n">
         <v>6</v>
       </c>
-      <c r="F11" s="23" t="n">
+      <c r="F11" s="16" t="n">
         <v>11</v>
       </c>
-      <c r="G11" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="K11" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="L11" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="M11" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="N11" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="O11" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="24"/>
-      <c r="U11" s="24"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="24"/>
-      <c r="X11" s="24"/>
-      <c r="Y11" s="24" t="s">
+      <c r="G11" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="N11" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="O11" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="Z11" s="24"/>
-      <c r="AA11" s="24"/>
-      <c r="AB11" s="24"/>
-      <c r="AC11" s="24"/>
-      <c r="AD11" s="24"/>
-      <c r="AE11" s="24"/>
-      <c r="AF11" s="24"/>
-      <c r="AG11" s="24"/>
-      <c r="AH11" s="24"/>
-      <c r="AI11" s="24"/>
-      <c r="AJ11" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="AK11" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL11" s="24"/>
-      <c r="AM11" s="24"/>
-      <c r="AN11" s="24"/>
-      <c r="AO11" s="24"/>
-      <c r="AP11" s="24"/>
-      <c r="AQ11" s="24"/>
+      <c r="Z11" s="17"/>
+      <c r="AA11" s="17"/>
+      <c r="AB11" s="17"/>
+      <c r="AC11" s="17"/>
+      <c r="AD11" s="17"/>
+      <c r="AE11" s="17"/>
+      <c r="AF11" s="17"/>
+      <c r="AG11" s="17"/>
+      <c r="AH11" s="17"/>
+      <c r="AI11" s="17"/>
+      <c r="AJ11" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="AK11" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL11" s="17"/>
+      <c r="AM11" s="17"/>
+      <c r="AN11" s="17"/>
+      <c r="AO11" s="17"/>
+      <c r="AP11" s="17"/>
+      <c r="AQ11" s="17"/>
     </row>
     <row r="12" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="27" t="n">
+      <c r="B12" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="C12" s="27" t="n">
+      <c r="C12" s="20" t="n">
         <v>10</v>
       </c>
-      <c r="D12" s="27" t="n">
+      <c r="D12" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="E12" s="27" t="n">
+      <c r="E12" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="F12" s="28" t="n">
+      <c r="F12" s="21" t="n">
         <f aca="false">3*$B$1 - SUM($F6:$F11)</f>
         <v>10</v>
       </c>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="29"/>
-      <c r="T12" s="29"/>
-      <c r="U12" s="29"/>
-      <c r="V12" s="29"/>
-      <c r="W12" s="29"/>
-      <c r="X12" s="29"/>
-      <c r="Y12" s="29"/>
-      <c r="Z12" s="29"/>
-      <c r="AA12" s="29"/>
-      <c r="AB12" s="29"/>
-      <c r="AC12" s="29"/>
-      <c r="AD12" s="29"/>
-      <c r="AE12" s="29"/>
-      <c r="AF12" s="29"/>
-      <c r="AG12" s="29"/>
-      <c r="AH12" s="29"/>
-      <c r="AI12" s="29"/>
-      <c r="AJ12" s="29"/>
-      <c r="AK12" s="29"/>
-      <c r="AL12" s="29"/>
-      <c r="AM12" s="29"/>
-      <c r="AN12" s="29"/>
-      <c r="AO12" s="29"/>
-      <c r="AP12" s="29"/>
-      <c r="AQ12" s="29"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="22"/>
+      <c r="X12" s="22"/>
+      <c r="Y12" s="22"/>
+      <c r="Z12" s="22"/>
+      <c r="AA12" s="22"/>
+      <c r="AB12" s="22"/>
+      <c r="AC12" s="22"/>
+      <c r="AD12" s="22"/>
+      <c r="AE12" s="22"/>
+      <c r="AF12" s="22"/>
+      <c r="AG12" s="22"/>
+      <c r="AH12" s="22"/>
+      <c r="AI12" s="22"/>
+      <c r="AJ12" s="22"/>
+      <c r="AK12" s="22"/>
+      <c r="AL12" s="22"/>
+      <c r="AM12" s="22"/>
+      <c r="AN12" s="22"/>
+      <c r="AO12" s="22"/>
+      <c r="AP12" s="22"/>
+      <c r="AQ12" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/cpsat_solver/requests_admin_cp.xlsx
+++ b/cpsat_solver/requests_admin_cp.xlsx
@@ -790,7 +790,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="10"/>

--- a/cpsat_solver/requests_admin_cp.xlsx
+++ b/cpsat_solver/requests_admin_cp.xlsx
@@ -657,7 +657,7 @@
   <dimension ref="A1:AQ12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -790,7 +790,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="10"/>

--- a/cpsat_solver/requests_admin_cp.xlsx
+++ b/cpsat_solver/requests_admin_cp.xlsx
@@ -790,7 +790,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="10"/>
